--- a/biology/Biologie cellulaire et moléculaire/Facteurs_naturels_d'hydratation/Facteurs_naturels_d'hydratation.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Facteurs_naturels_d'hydratation/Facteurs_naturels_d'hydratation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteurs_naturels_d%27hydratation</t>
+          <t>Facteurs_naturels_d'hydratation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">NMF est un acronyme anglais signifiant Natural Moisturizing Factors, soit en français : « facteurs naturels d’hydratation (FNH) ». C'est un ensemble de substances hygroscopiques localisées à l'intérieur des cornéocytes, de l'épiderme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteurs_naturels_d%27hydratation</t>
+          <t>Facteurs_naturels_d'hydratation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le NMF permet de fixer et d'assurer l'hydratation de la couche cornée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteurs_naturels_d%27hydratation</t>
+          <t>Facteurs_naturels_d'hydratation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">acides aminés,
 acide pyrrolidone carboxylique (PCA),
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteurs_naturels_d%27hydratation</t>
+          <t>Facteurs_naturels_d'hydratation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept de NMF est apparu au début des années 1970[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept de NMF est apparu au début des années 1970
 </t>
         </is>
       </c>
